--- a/experiment(LRC circuit).xlsx
+++ b/experiment(LRC circuit).xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{626950C5-5BE2-40A6-AA03-5D65EBBD561B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{626950C5-5BE2-40A6-AA03-5D65EBBD561B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>avg</t>
   </si>
@@ -35,20 +36,41 @@
     <t>Voltage (V)</t>
   </si>
   <si>
-    <t>current(A*10^3)</t>
+    <t>∆cal</t>
+  </si>
+  <si>
+    <t>∆read</t>
+  </si>
+  <si>
+    <t>∆rand</t>
+  </si>
+  <si>
+    <t>∆total</t>
+  </si>
+  <si>
+    <t>∆%</t>
+  </si>
+  <si>
+    <t>current(mA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,6 +111,2223 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3597-49E2-A13B-318A01B4EDFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.074000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.559999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3597-49E2-A13B-318A01B4EDFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="626890680"/>
+        <c:axId val="626898224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="626890680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626898224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626898224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626890680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Current In</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> an LRC circuit (AC)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$6:$M$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.14456832294800959</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.30052635491750135</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.47322257976558979</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.70384209166545297</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0379306335203715</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4639672127476078</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.8743428181632089</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.8681073309636145</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6401734664357912</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.395730633037765</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.1824060216355459</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.0410072045860201</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.94118276652305954</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$6:$M$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.14456832294800959</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.30052635491750135</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.47322257976558979</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.70384209166545297</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0379306335203715</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4639672127476078</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.8743428181632089</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.8681073309636145</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6401734664357912</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.395730633037765</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.1824060216355459</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.0410072045860201</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.94118276652305954</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.074000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.559999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47B2-4B41-89D2-75AB85BC9E9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="504344912"/>
+        <c:axId val="504346224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="504344912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504346224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="504346224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Current (mA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504344912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4D8CF330-0A8A-410B-8E78-8BF2C1D69AC7}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF51B32-2681-4EEF-AD67-F3AB3C871437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425629</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>115906</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48569</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9CCDF9-7987-48E2-9C31-99A504DF1351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9521E1-1445-4897-858E-9571F4CBE224}">
-  <dimension ref="B4:I18"/>
+  <dimension ref="B4:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,12 +2640,12 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -430,8 +2670,23 @@
       <c r="I5" t="s">
         <v>0</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>10</v>
       </c>
@@ -457,8 +2712,27 @@
         <f>AVERAGE(D6:H6)</f>
         <v>2.88</v>
       </c>
+      <c r="J6">
+        <f>(I6/100) * 5</f>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.01</v>
+      </c>
+      <c r="L6">
+        <f>(E6-F6)/5</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="M6">
+        <f xml:space="preserve"> ((J6^2) + (K6^2)+(L6^2))^0.5</f>
+        <v>0.14456832294800959</v>
+      </c>
+      <c r="N6">
+        <f>(M6/I6)*100</f>
+        <v>5.0197334356947776</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>20</v>
       </c>
@@ -484,8 +2758,27 @@
         <f t="shared" ref="I7:I18" si="0">AVERAGE(D7:H7)</f>
         <v>6.0060000000000002</v>
       </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J18" si="1">(I7/100) * 5</f>
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.01</v>
+      </c>
+      <c r="L7">
+        <f>(F7-G7)/5</f>
+        <v>5.9999999999998718E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M18" si="2" xml:space="preserve"> ((J7^2) + (K7^2)+(L7^2))^0.5</f>
+        <v>0.30052635491750135</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N18" si="3">(M7/I7)*100</f>
+        <v>5.0037688131452107</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>30</v>
       </c>
@@ -511,8 +2804,27 @@
         <f t="shared" si="0"/>
         <v>9.4619999999999997</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.47309999999999997</v>
+      </c>
+      <c r="K8">
+        <v>0.01</v>
+      </c>
+      <c r="L8">
+        <f>(F8-H8)/5</f>
+        <v>4.0000000000002698E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0.47322257976558979</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>5.0012954953032107</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>40</v>
       </c>
@@ -538,8 +2850,27 @@
         <f t="shared" si="0"/>
         <v>14.074000000000002</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.70369999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.01</v>
+      </c>
+      <c r="L9">
+        <f>(G9-E9)/5</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0.70384209166545297</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>5.0010096039892913</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>50</v>
       </c>
@@ -565,8 +2896,27 @@
         <f t="shared" si="0"/>
         <v>20.6</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1.03</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <f>(E10-G10)/5</f>
+        <v>8.0000000000000432E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>1.0379306335203715</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>5.0384982209726772</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>60</v>
       </c>
@@ -577,7 +2927,7 @@
         <v>29.2</v>
       </c>
       <c r="E11">
-        <v>19.2</v>
+        <v>29.2</v>
       </c>
       <c r="F11">
         <v>29.1</v>
@@ -590,10 +2940,29 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>27.2</v>
+        <v>29.2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1.46</v>
+      </c>
+      <c r="K11">
+        <v>0.1</v>
+      </c>
+      <c r="L11">
+        <f>(G11-F11)/5</f>
+        <v>3.9999999999999855E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1.4639672127476078</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>5.013586345026054</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>70</v>
       </c>
@@ -619,8 +2988,27 @@
         <f t="shared" si="0"/>
         <v>37.380000000000003</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.8690000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.1</v>
+      </c>
+      <c r="L12">
+        <f>(G12-D12)/5</f>
+        <v>0.1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>1.8743428181632089</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>5.0142932535131326</v>
+      </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>80</v>
       </c>
@@ -646,8 +3034,27 @@
         <f t="shared" si="0"/>
         <v>37.299999999999997</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1.865</v>
+      </c>
+      <c r="K13">
+        <v>0.1</v>
+      </c>
+      <c r="L13">
+        <f>(D13-E13)/5</f>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>1.8681073309636145</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>5.0083306460150521</v>
+      </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>90</v>
       </c>
@@ -673,8 +3080,27 @@
         <f t="shared" si="0"/>
         <v>32.739999999999995</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1.6369999999999998</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="L14">
+        <f>(G14-H14)/5</f>
+        <v>1.9999999999998862E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>1.6401734664357912</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>5.0096929335241036</v>
+      </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>100</v>
       </c>
@@ -700,8 +3126,27 @@
         <f t="shared" si="0"/>
         <v>27.840000000000003</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1.3920000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.1</v>
+      </c>
+      <c r="L15">
+        <f>(D15-E15)/5</f>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>1.395730633037765</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>5.0134002623482932</v>
+      </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>110</v>
       </c>
@@ -727,8 +3172,27 @@
         <f t="shared" si="0"/>
         <v>23.559999999999995</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1.1779999999999997</v>
+      </c>
+      <c r="K16">
+        <v>0.1</v>
+      </c>
+      <c r="L16">
+        <f>(E16-F16)/5</f>
+        <v>2.0000000000000285E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>1.1824060216355459</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>5.0187012802866988</v>
+      </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>120</v>
       </c>
@@ -754,8 +3218,27 @@
         <f t="shared" si="0"/>
         <v>20.72</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1.036</v>
+      </c>
+      <c r="K17">
+        <v>0.1</v>
+      </c>
+      <c r="L17">
+        <f>(H17-G17)/5</f>
+        <v>2.0000000000000285E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>1.0410072045860201</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>5.0241660452993253</v>
+      </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>130</v>
       </c>
@@ -781,8 +3264,106 @@
         <f t="shared" si="0"/>
         <v>18.7</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="K18">
+        <v>0.1</v>
+      </c>
+      <c r="L18">
+        <f>(F18-D18)/5</f>
+        <v>3.9999999999999855E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0.94118276652305954</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>5.0330629225832064</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f>(B6/100)*1.42</f>
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" ref="D23:D38" si="4">(B7/100)*1.42</f>
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>0.99399999999999988</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>1.1359999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>1.278</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>1.5620000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>1.704</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>1.8459999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiment(LRC circuit).xlsx
+++ b/experiment(LRC circuit).xlsx
@@ -2293,16 +2293,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>425629</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>32658</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>534486</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>115906</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>48569</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>224763</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D23">
-        <f t="shared" ref="D23:D38" si="4">(B7/100)*1.42</f>
+        <f t="shared" ref="D23:D34" si="4">(B7/100)*1.42</f>
         <v>0.28399999999999997</v>
       </c>
     </row>
